--- a/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/სამეგრელო-ზემო სვანეთი/ზუგდიდი.xlsx
+++ b/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/სამეგრელო-ზემო სვანეთი/ზუგდიდი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\სამეგრელო-ზემო სვანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\სამეგრელო-ზემო სვანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ზუგდიდი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,11 @@
       <color indexed="8"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,9 +179,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -211,8 +217,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_01_IANVARI" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,16 +588,16 @@
         <v>16299</v>
       </c>
       <c r="E4" s="8">
-        <v>10234</v>
+        <v>15994</v>
       </c>
       <c r="F4" s="9">
-        <v>8482</v>
+        <v>13405</v>
       </c>
       <c r="G4" s="9">
-        <v>5642</v>
+        <v>9689</v>
       </c>
       <c r="H4" s="9">
-        <v>5537</v>
+        <v>9711</v>
       </c>
       <c r="I4" s="9">
         <v>10093</v>
@@ -617,16 +624,16 @@
         <v>3956</v>
       </c>
       <c r="E5" s="9">
-        <v>2146</v>
+        <v>3676</v>
       </c>
       <c r="F5" s="9">
-        <v>2581</v>
+        <v>4562</v>
       </c>
       <c r="G5" s="9">
-        <v>2326</v>
+        <v>4294</v>
       </c>
       <c r="H5" s="9">
-        <v>2559</v>
+        <v>4707</v>
       </c>
       <c r="I5" s="9">
         <v>5422</v>
